--- a/data/Data_LakeJacksonSinkhole (1).xlsx
+++ b/data/Data_LakeJacksonSinkhole (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/kac15c_fsu_edu/Documents/Documents/PhD/Research/LakeJacksonSinkhole/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_4E090D9217A9EFBF899FFF81089033DEA8A34148" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02F1661-F037-4C4A-B84D-5865FBBCAA18}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_4E090D9217A9EFBF899FFF81089033DEA8A34148" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E28925E4-7076-4E7B-91F8-ECE0B13628E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling Site" sheetId="3" r:id="rId1"/>
@@ -2441,431 +2441,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FSU</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Well </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sulfate</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Anion Conc'!$C$21:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0" formatCode="m/d/yy\ h:mm;@">
-                  <c:v>44320.53125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44355.572222222225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44361.847222222219</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44368.673611111109</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44372.684027777781</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44382.565972222219</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44389.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44396.649305555555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44404.625</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44410.635416666664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44417.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44421.4375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44425.604166666664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44428.479166666664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44432.534722222219</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44434.614583333336</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44438.472222222219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Anion Conc'!$K$21:$K$37</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44.595700000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29.4832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.492899999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.627199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0648999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3912</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>1.0297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.5907</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>2.133</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>4.0995999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>2.8304999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>2.5767000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>2.5981999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>3.2696999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E60-4699-B27E-066717777EF1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="43545807"/>
-        <c:axId val="43544975"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="43545807"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="44320"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="43544975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="43544975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="43545807"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Phosphate</a:t>
             </a:r>
           </a:p>
@@ -3248,7 +2823,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4203,7 +3778,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4656,7 +4231,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4702,7 +4277,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8585905525695618E-2"/>
+          <c:y val="0.14049269560389649"/>
+          <c:w val="0.85426500230403746"/>
+          <c:h val="0.83147184505883309"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5047,7 +4632,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5494,7 +5079,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5876,6 +5461,431 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="948990943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FSU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Well </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sulfate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Anion Conc'!$C$21:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0" formatCode="m/d/yy\ h:mm;@">
+                  <c:v>44320.53125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44355.572222222225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44361.847222222219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44368.673611111109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44372.684027777781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44382.565972222219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44389.590277777781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44396.649305555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44404.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44410.635416666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44417.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44421.4375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44425.604166666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44428.479166666664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44432.534722222219</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44434.614583333336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44438.472222222219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Anion Conc'!$K$21:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.595700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.492899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.627199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0648999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3912</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.0297000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.5907</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>2.133</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>4.0995999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.8304999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>2.5767000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.5981999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.2696999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E60-4699-B27E-066717777EF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43545807"/>
+        <c:axId val="43544975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43545807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="44320"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yy\ h:mm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43544975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43544975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43545807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13058,42 +13068,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419380</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>46784</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>128587</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -13122,7 +13096,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13158,7 +13132,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13194,7 +13168,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13202,16 +13176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89645</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141195</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>235322</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13230,7 +13204,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13266,7 +13240,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13291,6 +13265,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8EF450-7E41-4CC6-A8D7-B5618C6E13FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>26613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>91888</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>102813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17090,9 +17100,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" activeCellId="1" sqref="C21:C37 I21:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24289,6 +24299,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061ABD875F36B3A4199EA95772E9CAE51" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fb18551c392ccefc355e939536c47fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42c5a031-ad8c-457d-addf-bf68b83fbbff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb461d244ae4f8b3a0b68fb48e157173" ns2:_="">
     <xsd:import namespace="42c5a031-ad8c-457d-addf-bf68b83fbbff"/>
@@ -24472,15 +24491,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55AE04AE-DCF7-4799-98AD-72EBC0F78C69}">
   <ds:schemaRefs>
@@ -24498,6 +24508,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0893C752-B65C-4575-835B-8DE5BFB301F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D18C5B1E-6400-4661-8C6D-09B302B7DEE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24513,12 +24531,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0893C752-B65C-4575-835B-8DE5BFB301F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>